--- a/Project Outputs for TP2/Bill of Materials/Bill of Materials.xlsx
+++ b/Project Outputs for TP2/Bill of Materials/Bill of Materials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="115">
   <si>
     <t>Comment</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Capacitor</t>
   </si>
   <si>
-    <t>CAPC1608N</t>
+    <t>0603</t>
   </si>
   <si>
     <t>Cap</t>
@@ -93,7 +93,7 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>CAPC2012N</t>
+    <t>0805</t>
   </si>
   <si>
     <t>10u</t>
@@ -156,9 +156,6 @@
     <t>Typical INFRARED GaAs LED, Typical RED, GREEN, YELLOW, AMBER GaAs LED, Typical RED, GREEN, YELLOW, AMBER GaAs LED, Typical RED, GREEN, YELLOW, AMBER GaAs LED, Typical RED, GREEN, YELLOW, AMBER GaAs LED</t>
   </si>
   <si>
-    <t>LED 0805</t>
-  </si>
-  <si>
     <t>LED2</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>Ferrite Bead</t>
   </si>
   <si>
-    <t>INDC1608AN</t>
-  </si>
-  <si>
     <t>Inductor</t>
   </si>
   <si>
@@ -288,9 +282,6 @@
     <t>Resistor</t>
   </si>
   <si>
-    <t>RESC1608N</t>
-  </si>
-  <si>
     <t>Res1</t>
   </si>
   <si>
@@ -357,7 +348,7 @@
     <t>Crystal Oscillator</t>
   </si>
   <si>
-    <t>HC49/4H SMX CRYSTAL</t>
+    <t>HC49/4HSMX</t>
   </si>
   <si>
     <t>XTAL</t>
@@ -975,10 +966,10 @@
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
@@ -987,74 +978,74 @@
         <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -1063,36 +1054,36 @@
         <v>17</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1101,36 +1092,36 @@
         <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1139,80 +1130,80 @@
         <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E13" s="3">
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>17</v>
@@ -1227,30 +1218,30 @@
         <v>17</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>17</v>
@@ -1265,30 +1256,30 @@
         <v>17</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>17</v>
@@ -1303,24 +1294,24 @@
         <v>17</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1329,36 +1320,36 @@
         <v>17</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1367,36 +1358,36 @@
         <v>17</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1405,22 +1396,22 @@
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
